--- a/tiles analysis/121324_analysis_by_image_NEW.xlsx
+++ b/tiles analysis/121324_analysis_by_image_NEW.xlsx
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06086956521739131</v>
+        <v>0.006622516556291391</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.05737704918032787</v>
+        <v>0.01785714285714286</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>151</v>
+        <v>208</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3311258278145696</v>
+        <v>0.09615384615384616</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2945736434108527</v>
+        <v>0.1238938053097345</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08108108108108109</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1009174311926606</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>113</v>
+        <v>245</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09734513274336283</v>
+        <v>0.004081632653061225</v>
       </c>
     </row>
     <row r="10">
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>122</v>
+        <v>200</v>
       </c>
       <c r="D10" t="n">
-        <v>0.139344262295082</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +606,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>112</v>
+        <v>195</v>
       </c>
       <c r="D11" t="n">
-        <v>0.2767857142857143</v>
+        <v>0.07179487179487179</v>
       </c>
     </row>
     <row r="12">
@@ -622,13 +622,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5625</v>
+        <v>0.1245421245421245</v>
       </c>
     </row>
     <row r="13">
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C13" t="n">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D13" t="n">
-        <v>0.2421875</v>
+        <v>0.05844155844155844</v>
       </c>
     </row>
     <row r="14">
@@ -654,13 +654,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>90</v>
+        <v>2200</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>345</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>6.376811594202898</v>
       </c>
     </row>
     <row r="15">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>454</v>
+        <v>1733</v>
       </c>
       <c r="C15" t="n">
-        <v>52</v>
+        <v>476</v>
       </c>
       <c r="D15" t="n">
-        <v>8.73076923076923</v>
+        <v>3.640756302521008</v>
       </c>
     </row>
     <row r="16">
@@ -686,13 +686,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>487</v>
+        <v>1588</v>
       </c>
       <c r="C16" t="n">
-        <v>58</v>
+        <v>562</v>
       </c>
       <c r="D16" t="n">
-        <v>8.396551724137931</v>
+        <v>2.825622775800712</v>
       </c>
     </row>
     <row r="17">
@@ -702,13 +702,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="D17" t="n">
-        <v>0.125</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="18">
@@ -718,13 +718,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1282051282051282</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="19">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="20">
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C21" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="22">
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C22" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.2758620689655172</v>
       </c>
     </row>
     <row r="23">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1851851851851852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>2</v>
       </c>
       <c r="C25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05882352941176471</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="26">
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4468085106382979</v>
+        <v>0.09722222222222222</v>
       </c>
     </row>
     <row r="27">
@@ -862,13 +862,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="n">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.0625</v>
       </c>
     </row>
     <row r="28">
@@ -878,13 +878,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1875</v>
+        <v>0.06557377049180328</v>
       </c>
     </row>
   </sheetData>
